--- a/Index.xlsx
+++ b/Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\Stargate-NLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43E0E72-7C6F-4AC1-B4A4-E37F9E7FCEFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F005054D-B346-457E-95F9-BD50384A8A00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1830" windowWidth="18045" windowHeight="19725" xr2:uid="{0F7FE32D-9C46-414F-A16A-0BB09DF0029F}"/>
+    <workbookView xWindow="5340" yWindow="1275" windowWidth="18045" windowHeight="19725" xr2:uid="{0F7FE32D-9C46-414F-A16A-0BB09DF0029F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A3:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
